--- a/functions/Data/courseInfoStructure.xlsx
+++ b/functions/Data/courseInfoStructure.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="412">
   <si>
     <t>courses</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>concepMath</t>
-  </si>
-  <si>
-    <t>lessonTechiques</t>
   </si>
   <si>
     <t>lessonMaterials</t>
@@ -2027,15 +2024,15 @@
         <v>28</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>1</v>
+      <c r="I27" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="K27" s="2"/>
     </row>
@@ -2076,27 +2073,27 @@
       <c r="K31" s="2"/>
     </row>
     <row r="32">
-      <c r="H32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="H32" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="H33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="I34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="G33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="H34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -2112,7 +2109,7 @@
         <v>38</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -2128,14 +2125,6 @@
         <v>40</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="I39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J39" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2162,22 +2151,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -2191,13 +2180,13 @@
         <v>14</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -2211,13 +2200,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -2231,13 +2220,13 @@
         <v>9</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -2251,10 +2240,10 @@
         <v>15</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -2269,10 +2258,10 @@
         <v>16</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" s="11"/>
     </row>
@@ -2285,7 +2274,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -2324,7 +2313,7 @@
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -2394,7 +2383,7 @@
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -2404,7 +2393,7 @@
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -2414,7 +2403,7 @@
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -2424,7 +2413,7 @@
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -2434,7 +2423,7 @@
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
@@ -2442,12 +2431,12 @@
     </row>
     <row r="24">
       <c r="A24" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2491,36 +2480,36 @@
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="16" t="s">
         <v>71</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4">
@@ -2638,402 +2627,402 @@
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="F2" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="E3" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>80</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="22" t="s">
+      <c r="D4" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="E4" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>84</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="22" t="s">
+      <c r="D5" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="E5" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="F5" s="22" t="s">
         <v>89</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="22" t="s">
+      <c r="D6" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="E6" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="22" t="s">
         <v>93</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="22" t="s">
+      <c r="D7" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="E7" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="22" t="s">
         <v>97</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="22" t="s">
+      <c r="D8" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="E8" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="F8" s="22" t="s">
         <v>102</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="22" t="s">
+      <c r="D9" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="E9" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>106</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="22" t="s">
+      <c r="E10" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="F10" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="22" t="s">
+      <c r="E11" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>113</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="22" t="s">
+      <c r="E12" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="22" t="s">
         <v>116</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="22" t="s">
+      <c r="E13" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="F13" s="22" t="s">
         <v>120</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="22" t="s">
+      <c r="E14" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="22" t="s">
         <v>123</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="22" t="s">
+      <c r="E15" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="22" t="s">
         <v>126</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="22" t="s">
+      <c r="E16" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="F16" s="22" t="s">
         <v>130</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="22" t="s">
+      <c r="E17" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="22" t="s">
         <v>133</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="22" t="s">
+      <c r="E18" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="22" t="s">
         <v>136</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="22" t="s">
+      <c r="E19" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" s="22" t="s">
         <v>139</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="22" t="s">
+      <c r="E20" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="22" t="s">
         <v>142</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="22" t="s">
+      <c r="E21" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="22" t="s">
         <v>145</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="22">
@@ -10897,7 +10886,7 @@
         <v>20</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>22</v>
@@ -10918,1654 +10907,1654 @@
         <v>27</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="16" t="s">
         <v>149</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>150</v>
       </c>
       <c r="E2" s="26">
         <v>1.0</v>
       </c>
       <c r="F2" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I2" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="16" t="s">
+      <c r="K2" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="L2" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="M2" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="N2" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q2" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="N2" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q2" s="16" t="s">
+      <c r="R2" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="R2" s="28" t="s">
+      <c r="S2" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="S2" s="28" t="s">
+      <c r="T2" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="T2" s="28" t="s">
+      <c r="U2" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="U2" s="28" t="s">
+      <c r="V2" s="28" t="s">
         <v>162</v>
-      </c>
-      <c r="V2" s="28" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>164</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>165</v>
       </c>
       <c r="E3" s="26">
         <v>2.0</v>
       </c>
       <c r="F3" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="I3" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" s="16" t="s">
+      <c r="K3" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="L3" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="M3" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q3" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="M3" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="R3" s="28" t="s">
+      <c r="S3" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="S3" s="28" t="s">
+      <c r="T3" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="T3" s="28" t="s">
+      <c r="U3" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="U3" s="28" t="s">
+      <c r="V3" s="28" t="s">
         <v>176</v>
-      </c>
-      <c r="V3" s="28" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>178</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>179</v>
       </c>
       <c r="E4" s="26">
         <v>3.0</v>
       </c>
       <c r="F4" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="H4" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="I4" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" s="16" t="s">
+      <c r="K4" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="L4" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="M4" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q4" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="M4" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="P4" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q4" s="16" t="s">
+      <c r="R4" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="R4" s="28" t="s">
+      <c r="S4" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="S4" s="28" t="s">
+      <c r="T4" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="T4" s="28" t="s">
+      <c r="U4" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="U4" s="28" t="s">
+      <c r="V4" s="28" t="s">
         <v>190</v>
-      </c>
-      <c r="V4" s="28" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>192</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>193</v>
       </c>
       <c r="E5" s="26">
         <v>4.0</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q5" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R5" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T5" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U5" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V5" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>195</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>196</v>
       </c>
       <c r="E6" s="26">
         <v>5.0</v>
       </c>
       <c r="F6" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="H6" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="I6" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="I6" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" s="16" t="s">
+      <c r="K6" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="L6" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="M6" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q6" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="M6" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q6" s="16" t="s">
+      <c r="R6" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="R6" s="28" t="s">
+      <c r="S6" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="S6" s="28" t="s">
+      <c r="T6" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="T6" s="28" t="s">
+      <c r="U6" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="U6" s="28" t="s">
+      <c r="V6" s="28" t="s">
         <v>207</v>
-      </c>
-      <c r="V6" s="28" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>209</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>210</v>
       </c>
       <c r="E7" s="26">
         <v>6.0</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G7" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="I7" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="K7" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="I7" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="K7" s="16" t="s">
+      <c r="L7" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="M7" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q7" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="M7" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q7" s="16" t="s">
+      <c r="R7" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="R7" s="28" t="s">
+      <c r="S7" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="S7" s="28" t="s">
+      <c r="T7" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="T7" s="28" t="s">
+      <c r="U7" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="U7" s="28" t="s">
+      <c r="V7" s="28" t="s">
         <v>219</v>
-      </c>
-      <c r="V7" s="28" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>221</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>222</v>
       </c>
       <c r="E8" s="26">
         <v>7.0</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G8" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="I8" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="I8" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" s="16" t="s">
+      <c r="K8" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="L8" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="M8" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q8" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="M8" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q8" s="16" t="s">
+      <c r="R8" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="R8" s="28" t="s">
+      <c r="S8" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="S8" s="28" t="s">
+      <c r="T8" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="T8" s="28" t="s">
+      <c r="U8" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="U8" s="28" t="s">
+      <c r="V8" s="28" t="s">
         <v>232</v>
-      </c>
-      <c r="V8" s="28" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>234</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>235</v>
       </c>
       <c r="E9" s="26">
         <v>8.0</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G9" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="I9" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="I9" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="16" t="s">
+      <c r="K9" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="L9" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="M9" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q9" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="M9" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="P9" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q9" s="16" t="s">
+      <c r="R9" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="R9" s="28" t="s">
+      <c r="S9" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="S9" s="28" t="s">
+      <c r="T9" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="T9" s="28" t="s">
+      <c r="U9" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="U9" s="28" t="s">
+      <c r="V9" s="28" t="s">
         <v>245</v>
-      </c>
-      <c r="V9" s="28" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E10" s="26">
         <v>9.0</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R10" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S10" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T10" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U10" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V10" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>248</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>249</v>
       </c>
       <c r="E11" s="26">
         <v>10.0</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P11" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R11" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S11" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T11" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U11" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V11" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>251</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>252</v>
       </c>
       <c r="E12" s="26">
         <v>11.0</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N12" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q12" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R12" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S12" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T12" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U12" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V12" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>254</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>255</v>
       </c>
       <c r="E13" s="26">
         <v>12.0</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N13" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P13" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q13" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R13" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S13" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T13" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U13" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V13" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>257</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>258</v>
       </c>
       <c r="E14" s="26">
         <v>1.0</v>
       </c>
       <c r="F14" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q14" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="G14" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="J14" s="16" t="s">
+      <c r="R14" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="K14" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="P14" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q14" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="R14" s="28" t="s">
+      <c r="S14" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="S14" s="28" t="s">
+      <c r="T14" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="T14" s="28" t="s">
+      <c r="U14" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="U14" s="28" t="s">
+      <c r="V14" s="28" t="s">
         <v>265</v>
-      </c>
-      <c r="V14" s="28" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>267</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>268</v>
       </c>
       <c r="E15" s="26">
         <v>2.0</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G15" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="H15" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="I15" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="J15" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="I15" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="J15" s="16" t="s">
+      <c r="K15" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="P15" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q15" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="R15" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="K15" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="N15" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="O15" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="P15" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q15" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="R15" s="28" t="s">
+      <c r="S15" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="S15" s="28" t="s">
+      <c r="T15" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="T15" s="28" t="s">
+      <c r="U15" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="U15" s="28" t="s">
+      <c r="V15" s="28" t="s">
         <v>275</v>
-      </c>
-      <c r="V15" s="28" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>277</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>278</v>
       </c>
       <c r="E16" s="26">
         <v>3.0</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G16" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="H16" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="I16" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="P16" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q16" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="R16" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="I16" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="L16" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="M16" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="N16" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="O16" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="P16" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q16" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="R16" s="28" t="s">
+      <c r="S16" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="S16" s="28" t="s">
+      <c r="T16" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="T16" s="28" t="s">
+      <c r="U16" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="U16" s="28" t="s">
+      <c r="V16" s="28" t="s">
         <v>284</v>
-      </c>
-      <c r="V16" s="28" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E17" s="26">
         <v>4.0</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N17" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P17" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q17" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R17" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S17" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T17" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U17" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V17" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>287</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>288</v>
       </c>
       <c r="E18" s="26">
         <v>5.0</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G18" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="H18" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="I18" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="J18" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="I18" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="J18" s="16" t="s">
+      <c r="K18" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N18" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O18" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="P18" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q18" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="R18" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="K18" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="L18" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="M18" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="N18" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="O18" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="P18" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q18" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="R18" s="28" t="s">
+      <c r="S18" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="S18" s="28" t="s">
+      <c r="T18" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="T18" s="28" t="s">
+      <c r="U18" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="U18" s="28" t="s">
+      <c r="V18" s="28" t="s">
         <v>295</v>
-      </c>
-      <c r="V18" s="28" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>297</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>298</v>
       </c>
       <c r="E19" s="26">
         <v>6.0</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G19" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="H19" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="I19" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="J19" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="I19" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="J19" s="16" t="s">
+      <c r="K19" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N19" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O19" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="P19" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q19" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="R19" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="K19" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="L19" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="M19" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="N19" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="O19" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="P19" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q19" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="R19" s="28" t="s">
+      <c r="S19" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="S19" s="28" t="s">
+      <c r="T19" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="T19" s="28" t="s">
+      <c r="U19" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="U19" s="28" t="s">
+      <c r="V19" s="28" t="s">
         <v>305</v>
-      </c>
-      <c r="V19" s="28" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="16" t="s">
         <v>307</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>308</v>
       </c>
       <c r="E20" s="26">
         <v>7.0</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G20" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="H20" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="I20" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="J20" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="I20" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="J20" s="16" t="s">
+      <c r="K20" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N20" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O20" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="P20" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q20" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="R20" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="K20" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="L20" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="M20" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="N20" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="O20" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="P20" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q20" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="R20" s="28" t="s">
+      <c r="S20" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="S20" s="28" t="s">
+      <c r="T20" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="T20" s="28" t="s">
+      <c r="U20" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="U20" s="28" t="s">
+      <c r="V20" s="28" t="s">
         <v>315</v>
-      </c>
-      <c r="V20" s="28" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="16" t="s">
         <v>317</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>318</v>
       </c>
       <c r="E21" s="26">
         <v>8.0</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G21" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="H21" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="I21" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="J21" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="I21" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="J21" s="16" t="s">
+      <c r="K21" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N21" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O21" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="P21" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q21" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="R21" s="28" t="s">
         <v>321</v>
       </c>
-      <c r="K21" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="L21" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="M21" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="N21" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="O21" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="P21" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q21" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="R21" s="28" t="s">
+      <c r="S21" s="28" t="s">
         <v>322</v>
       </c>
-      <c r="S21" s="28" t="s">
+      <c r="T21" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="T21" s="28" t="s">
+      <c r="U21" s="28" t="s">
         <v>324</v>
       </c>
-      <c r="U21" s="28" t="s">
+      <c r="V21" s="28" t="s">
         <v>325</v>
-      </c>
-      <c r="V21" s="28" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E22" s="26">
         <v>9.0</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N22" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P22" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R22" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S22" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T22" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U22" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V22" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E23" s="26">
         <v>10.0</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N23" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R23" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S23" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T23" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V23" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E24" s="26">
         <v>11.0</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M24" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N24" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O24" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P24" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R24" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S24" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T24" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V24" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E25" s="26">
         <v>12.0</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M25" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N25" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P25" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q25" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R25" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S25" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T25" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U25" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V25" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26">
@@ -35927,34 +35916,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" s="28" t="str">
         <f t="shared" ref="C2:C71" si="1">IF(D2="lesson-plan","Lesson Plan - ",IF(D2="slide","Slide - ",IF(D2="quiz","Quiz - ",IF(D2="video","Video - ",IF(D2="summary","Summary - ")))))&amp;B2</f>
         <v>Lesson Plan - Giới thiệu bản thân</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E2" s="33" t="str">
         <f t="shared" ref="E2:E71" si="2">"https://teky.edu.vn/"&amp;A2</f>
@@ -35963,17 +35952,17 @@
     </row>
     <row r="3">
       <c r="A3" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Slide - Giới thiệu bản thân</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E3" s="33" t="str">
         <f t="shared" si="2"/>
@@ -35982,17 +35971,17 @@
     </row>
     <row r="4">
       <c r="A4" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Summary - Giới thiệu bản thân</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E4" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36001,17 +35990,17 @@
     </row>
     <row r="5">
       <c r="A5" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Quiz - Giới thiệu bản thân</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E5" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36020,17 +36009,17 @@
     </row>
     <row r="6">
       <c r="A6" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Video - Giới thiệu bản thân</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E6" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36039,17 +36028,17 @@
     </row>
     <row r="7">
       <c r="A7" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C7" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Lesson Plan - Chuyện cún con và mèo con</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E7" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36058,17 +36047,17 @@
     </row>
     <row r="8">
       <c r="A8" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C8" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Slide - Chuyện cún con và mèo con</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E8" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36077,17 +36066,17 @@
     </row>
     <row r="9">
       <c r="A9" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C9" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Summary - Chuyện cún con và mèo con</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E9" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36096,17 +36085,17 @@
     </row>
     <row r="10">
       <c r="A10" s="31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C10" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Quiz - Chuyện cún con và mèo con</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E10" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36115,17 +36104,17 @@
     </row>
     <row r="11">
       <c r="A11" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C11" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Video - Chuyện cún con và mèo con</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E11" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36134,17 +36123,17 @@
     </row>
     <row r="12">
       <c r="A12" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C12" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Lesson Plan - Teky bay lượn</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E12" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36153,17 +36142,17 @@
     </row>
     <row r="13">
       <c r="A13" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C13" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Slide - Teky bay lượn</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E13" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36172,17 +36161,17 @@
     </row>
     <row r="14">
       <c r="A14" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C14" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Summary - Teky bay lượn</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E14" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36191,17 +36180,17 @@
     </row>
     <row r="15">
       <c r="A15" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C15" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Quiz - Teky bay lượn</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E15" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36210,17 +36199,17 @@
     </row>
     <row r="16">
       <c r="A16" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C16" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Video - Teky bay lượn</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E16" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36229,17 +36218,17 @@
     </row>
     <row r="17">
       <c r="A17" s="31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C17" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Lesson Plan - Thế giới hoang dã thu nhỏ - phần 1</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E17" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36248,17 +36237,17 @@
     </row>
     <row r="18">
       <c r="A18" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C18" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Slide - Thế giới hoang dã thu nhỏ - phần 2</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E18" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36267,17 +36256,17 @@
     </row>
     <row r="19">
       <c r="A19" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C19" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Summary - Thế giới hoang dã thu nhỏ - phần 3</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E19" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36286,17 +36275,17 @@
     </row>
     <row r="20">
       <c r="A20" s="31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C20" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Quiz - Thế giới hoang dã thu nhỏ - phần 4</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E20" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36305,17 +36294,17 @@
     </row>
     <row r="21">
       <c r="A21" s="31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C21" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Video - Thế giới hoang dã thu nhỏ - phần 5</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E21" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36324,17 +36313,17 @@
     </row>
     <row r="22">
       <c r="A22" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C22" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Lesson Plan - Thế giới hoang dã thu nhỏ - phần 2</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E22" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36343,17 +36332,17 @@
     </row>
     <row r="23">
       <c r="A23" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C23" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Slide - Thế giới hoang dã thu nhỏ - phần 3</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E23" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36362,17 +36351,17 @@
     </row>
     <row r="24">
       <c r="A24" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C24" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Summary - Thế giới hoang dã thu nhỏ - phần 4</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E24" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36381,17 +36370,17 @@
     </row>
     <row r="25">
       <c r="A25" s="31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C25" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Quiz - Thế giới hoang dã thu nhỏ - phần 5</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E25" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36400,17 +36389,17 @@
     </row>
     <row r="26">
       <c r="A26" s="31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C26" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Video - Thế giới hoang dã thu nhỏ - phần 6</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E26" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36419,17 +36408,17 @@
     </row>
     <row r="27">
       <c r="A27" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C27" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Lesson Plan - Họa sĩ Codekitten</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E27" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36438,17 +36427,17 @@
     </row>
     <row r="28">
       <c r="A28" s="31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C28" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Slide - Họa sĩ Codekitten</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E28" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36457,17 +36446,17 @@
     </row>
     <row r="29">
       <c r="A29" s="31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C29" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Summary - Họa sĩ Codekitten</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E29" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36476,17 +36465,17 @@
     </row>
     <row r="30">
       <c r="A30" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C30" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Quiz - Họa sĩ Codekitten</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E30" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36495,17 +36484,17 @@
     </row>
     <row r="31">
       <c r="A31" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C31" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Video - Họa sĩ Codekitten</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E31" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36514,17 +36503,17 @@
     </row>
     <row r="32">
       <c r="A32" s="31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C32" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Lesson Plan - Trò chơi đập bóng</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E32" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36533,17 +36522,17 @@
     </row>
     <row r="33">
       <c r="A33" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C33" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Slide - Trò chơi đập bóng</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E33" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36552,17 +36541,17 @@
     </row>
     <row r="34">
       <c r="A34" s="31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C34" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Summary - Trò chơi đập bóng</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E34" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36571,17 +36560,17 @@
     </row>
     <row r="35">
       <c r="A35" s="31" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C35" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Quiz - Trò chơi đập bóng</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E35" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36590,17 +36579,17 @@
     </row>
     <row r="36">
       <c r="A36" s="31" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C36" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Video - Trò chơi đập bóng</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E36" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36609,17 +36598,17 @@
     </row>
     <row r="37">
       <c r="A37" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C37" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Lesson Plan - Xe tự hành khám phá không gian</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E37" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36628,17 +36617,17 @@
     </row>
     <row r="38">
       <c r="A38" s="31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C38" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Slide - Xe tự hành khám phá không gian</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E38" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36647,17 +36636,17 @@
     </row>
     <row r="39">
       <c r="A39" s="31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C39" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Summary - Xe tự hành khám phá không gian</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E39" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36666,17 +36655,17 @@
     </row>
     <row r="40">
       <c r="A40" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C40" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Quiz - Xe tự hành khám phá không gian</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E40" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36685,17 +36674,17 @@
     </row>
     <row r="41">
       <c r="A41" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C41" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Video - Xe tự hành khám phá không gian</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E41" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36704,17 +36693,17 @@
     </row>
     <row r="42">
       <c r="A42" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C42" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Lesson Plan - Robot Milo</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E42" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36723,17 +36712,17 @@
     </row>
     <row r="43">
       <c r="A43" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C43" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Slide - Robot Milo</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E43" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36742,17 +36731,17 @@
     </row>
     <row r="44">
       <c r="A44" s="31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C44" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Summary - Robot Milo</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E44" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36761,17 +36750,17 @@
     </row>
     <row r="45">
       <c r="A45" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C45" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Quiz - Robot Milo</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E45" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36780,17 +36769,17 @@
     </row>
     <row r="46">
       <c r="A46" s="31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C46" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Video - Robot Milo</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E46" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36799,17 +36788,17 @@
     </row>
     <row r="47">
       <c r="A47" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C47" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Lesson Plan - Milo gọi, trung tâm trả lời</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E47" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36818,17 +36807,17 @@
     </row>
     <row r="48">
       <c r="A48" s="31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C48" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Slide - Milo gọi, trung tâm trả lời</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E48" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36837,17 +36826,17 @@
     </row>
     <row r="49">
       <c r="A49" s="31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B49" s="32" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C49" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Summary - Milo gọi, trung tâm trả lời</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E49" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36856,17 +36845,17 @@
     </row>
     <row r="50">
       <c r="A50" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C50" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Quiz - Milo gọi, trung tâm trả lời</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E50" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36875,17 +36864,17 @@
     </row>
     <row r="51">
       <c r="A51" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C51" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Video - Milo gọi, trung tâm trả lời</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E51" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36894,17 +36883,17 @@
     </row>
     <row r="52">
       <c r="A52" s="31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C52" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Lesson Plan - Robot Pull xuất hiện</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E52" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36913,17 +36902,17 @@
     </row>
     <row r="53">
       <c r="A53" s="31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C53" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Slide - Robot Pull xuất hiện</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E53" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36932,17 +36921,17 @@
     </row>
     <row r="54">
       <c r="A54" s="31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C54" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Summary - Robot Pull xuất hiện</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E54" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36951,17 +36940,17 @@
     </row>
     <row r="55">
       <c r="A55" s="31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C55" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Quiz - Robot Pull xuất hiện</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E55" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36970,17 +36959,17 @@
     </row>
     <row r="56">
       <c r="A56" s="31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C56" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Video - Robot Pull xuất hiện</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E56" s="33" t="str">
         <f t="shared" si="2"/>
@@ -36989,17 +36978,17 @@
     </row>
     <row r="57">
       <c r="A57" s="31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C57" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Lesson Plan - Vương quốc xe đua</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E57" s="33" t="str">
         <f t="shared" si="2"/>
@@ -37008,17 +36997,17 @@
     </row>
     <row r="58">
       <c r="A58" s="31" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C58" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Slide - Vương quốc xe đua</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E58" s="33" t="str">
         <f t="shared" si="2"/>
@@ -37027,17 +37016,17 @@
     </row>
     <row r="59">
       <c r="A59" s="31" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C59" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Summary - Vương quốc xe đua</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E59" s="33" t="str">
         <f t="shared" si="2"/>
@@ -37046,17 +37035,17 @@
     </row>
     <row r="60">
       <c r="A60" s="31" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C60" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Quiz - Vương quốc xe đua</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E60" s="33" t="str">
         <f t="shared" si="2"/>
@@ -37065,17 +37054,17 @@
     </row>
     <row r="61">
       <c r="A61" s="31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C61" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Video - Vương quốc xe đua</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E61" s="33" t="str">
         <f t="shared" si="2"/>
@@ -37084,17 +37073,17 @@
     </row>
     <row r="62">
       <c r="A62" s="31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C62" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Lesson Plan - Công trình chống động đất</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E62" s="33" t="str">
         <f t="shared" si="2"/>
@@ -37103,17 +37092,17 @@
     </row>
     <row r="63">
       <c r="A63" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C63" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Slide - Công trình chống động đất</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E63" s="33" t="str">
         <f t="shared" si="2"/>
@@ -37122,17 +37111,17 @@
     </row>
     <row r="64">
       <c r="A64" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C64" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Summary - Công trình chống động đất</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E64" s="33" t="str">
         <f t="shared" si="2"/>
@@ -37141,17 +37130,17 @@
     </row>
     <row r="65">
       <c r="A65" s="31" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C65" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Quiz - Công trình chống động đất</v>
       </c>
       <c r="D65" s="32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E65" s="33" t="str">
         <f t="shared" si="2"/>
@@ -37160,17 +37149,17 @@
     </row>
     <row r="66">
       <c r="A66" s="31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C66" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Video - Công trình chống động đất</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E66" s="33" t="str">
         <f t="shared" si="2"/>
@@ -37179,17 +37168,17 @@
     </row>
     <row r="67">
       <c r="A67" s="31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C67" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Lesson Plan - Sự tiến hóa của loài ếch</v>
       </c>
       <c r="D67" s="32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E67" s="33" t="str">
         <f t="shared" si="2"/>
@@ -37198,17 +37187,17 @@
     </row>
     <row r="68">
       <c r="A68" s="31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C68" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Slide - Sự tiến hóa của loài ếch</v>
       </c>
       <c r="D68" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E68" s="33" t="str">
         <f t="shared" si="2"/>
@@ -37217,17 +37206,17 @@
     </row>
     <row r="69">
       <c r="A69" s="31" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C69" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Summary - Sự tiến hóa của loài ếch</v>
       </c>
       <c r="D69" s="32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E69" s="33" t="str">
         <f t="shared" si="2"/>
@@ -37236,17 +37225,17 @@
     </row>
     <row r="70">
       <c r="A70" s="31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C70" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Quiz - Sự tiến hóa của loài ếch</v>
       </c>
       <c r="D70" s="32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E70" s="33" t="str">
         <f t="shared" si="2"/>
@@ -37255,17 +37244,17 @@
     </row>
     <row r="71">
       <c r="A71" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B71" s="32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C71" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Video - Sự tiến hóa của loài ếch</v>
       </c>
       <c r="D71" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E71" s="33" t="str">
         <f t="shared" si="2"/>
@@ -43800,39 +43789,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="20" t="s">
         <v>40</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>348</v>
-      </c>
       <c r="E2" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="36" t="str">
         <f t="shared" ref="F2:F15" si="1">"https://teky.edu.vn/"&amp;A2</f>
@@ -43841,19 +43830,19 @@
     </row>
     <row r="3">
       <c r="A3" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C3" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>350</v>
-      </c>
       <c r="E3" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3" s="36" t="str">
         <f t="shared" si="1"/>
@@ -43862,19 +43851,19 @@
     </row>
     <row r="4">
       <c r="A4" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>352</v>
-      </c>
       <c r="E4" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" s="36" t="str">
         <f t="shared" si="1"/>
@@ -43883,19 +43872,19 @@
     </row>
     <row r="5">
       <c r="A5" s="35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C5" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>354</v>
-      </c>
       <c r="E5" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5" s="36" t="str">
         <f t="shared" si="1"/>
@@ -43904,19 +43893,19 @@
     </row>
     <row r="6">
       <c r="A6" s="35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C6" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>356</v>
-      </c>
       <c r="E6" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" s="36" t="str">
         <f t="shared" si="1"/>
@@ -43925,19 +43914,19 @@
     </row>
     <row r="7">
       <c r="A7" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C7" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>358</v>
-      </c>
       <c r="E7" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" s="36" t="str">
         <f t="shared" si="1"/>
@@ -43946,19 +43935,19 @@
     </row>
     <row r="8">
       <c r="A8" s="35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C8" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>360</v>
-      </c>
       <c r="E8" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" s="36" t="str">
         <f t="shared" si="1"/>
@@ -43967,19 +43956,19 @@
     </row>
     <row r="9">
       <c r="A9" s="35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B9" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>362</v>
-      </c>
       <c r="D9" s="22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F9" s="36" t="str">
         <f t="shared" si="1"/>
@@ -43988,19 +43977,19 @@
     </row>
     <row r="10">
       <c r="A10" s="35" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B10" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>364</v>
-      </c>
       <c r="D10" s="22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F10" s="36" t="str">
         <f t="shared" si="1"/>
@@ -44009,19 +43998,19 @@
     </row>
     <row r="11">
       <c r="A11" s="35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B11" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>366</v>
-      </c>
       <c r="D11" s="22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F11" s="36" t="str">
         <f t="shared" si="1"/>
@@ -44030,19 +44019,19 @@
     </row>
     <row r="12">
       <c r="A12" s="35" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B12" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>367</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>368</v>
-      </c>
       <c r="D12" s="22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F12" s="36" t="str">
         <f t="shared" si="1"/>
@@ -44051,19 +44040,19 @@
     </row>
     <row r="13">
       <c r="A13" s="35" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B13" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>370</v>
-      </c>
       <c r="D13" s="22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F13" s="36" t="str">
         <f t="shared" si="1"/>
@@ -44072,19 +44061,19 @@
     </row>
     <row r="14">
       <c r="A14" s="35" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B14" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>372</v>
-      </c>
       <c r="D14" s="22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F14" s="36" t="str">
         <f t="shared" si="1"/>
@@ -44093,19 +44082,19 @@
     </row>
     <row r="15">
       <c r="A15" s="35" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B15" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>374</v>
-      </c>
       <c r="D15" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F15" s="36" t="str">
         <f t="shared" si="1"/>
@@ -51935,206 +51924,206 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="37" t="s">
         <v>54</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="38" t="s">
         <v>376</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>378</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>379</v>
       </c>
       <c r="D3" s="38">
         <v>2.0</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>381</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="D4" s="38" t="s">
         <v>382</v>
       </c>
-      <c r="D4" s="38" t="s">
-        <v>383</v>
-      </c>
       <c r="E4" s="38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="35" t="s">
+        <v>383</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>384</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="C5" s="22" t="s">
         <v>385</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>386</v>
       </c>
       <c r="D5" s="38">
         <v>3.0</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="35" t="s">
+        <v>386</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>387</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="C6" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="D6" s="38" t="s">
         <v>389</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="E6" s="38" t="s">
         <v>390</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="35" t="s">
+        <v>391</v>
+      </c>
+      <c r="B7" s="32" t="s">
         <v>392</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="C7" s="22" t="s">
         <v>393</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="D7" s="38" t="s">
         <v>394</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="E7" s="38" t="s">
         <v>395</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="B8" s="32" t="s">
         <v>397</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="C8" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="D8" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="E8" s="38" t="s">
         <v>400</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>403</v>
-      </c>
       <c r="D9" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="35" t="s">
+        <v>403</v>
+      </c>
+      <c r="B10" s="32" t="s">
         <v>404</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="C10" s="22" t="s">
         <v>405</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>406</v>
-      </c>
       <c r="D10" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="B11" s="32" t="s">
         <v>407</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="C11" s="22" t="s">
         <v>408</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>409</v>
-      </c>
       <c r="D11" s="38" t="s">
+        <v>399</v>
+      </c>
+      <c r="E11" s="38" t="s">
         <v>400</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="B12" s="32" t="s">
         <v>410</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="C12" s="22" t="s">
         <v>411</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>412</v>
-      </c>
       <c r="D12" s="38" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
